--- a/Project1/s02_2.xlsx
+++ b/Project1/s02_2.xlsx
@@ -386,2382 +386,2382 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>11.02009761072261</v>
+        <v>12.96032168968839</v>
       </c>
       <c r="B2">
-        <v>10.48649916031758</v>
+        <v>12.61660879760731</v>
       </c>
       <c r="C2">
-        <v>11.55369606112763</v>
+        <v>13.30403458176946</v>
       </c>
       <c r="D2">
-        <v>10.20402920339652</v>
+        <v>12.43465818334736</v>
       </c>
       <c r="E2">
-        <v>11.83616601804869</v>
+        <v>13.48598519602941</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>11.22102855477855</v>
+        <v>12.96525748661674</v>
       </c>
       <c r="B3">
-        <v>10.46640638935449</v>
+        <v>12.47068393022382</v>
       </c>
       <c r="C3">
-        <v>11.97565072020261</v>
+        <v>13.45983104300965</v>
       </c>
       <c r="D3">
-        <v>10.06693354531379</v>
+        <v>12.20887250430502</v>
       </c>
       <c r="E3">
-        <v>12.37512356424331</v>
+        <v>13.72164246892845</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>11.66487616550116</v>
+        <v>12.96878620681665</v>
       </c>
       <c r="B4">
-        <v>10.74065653855963</v>
+        <v>12.36508135534658</v>
       </c>
       <c r="C4">
-        <v>12.58909579244269</v>
+        <v>13.57249105828672</v>
       </c>
       <c r="D4">
-        <v>10.25140422156057</v>
+        <v>12.0454993114738</v>
       </c>
       <c r="E4">
-        <v>13.07834810944176</v>
+        <v>13.8920731021595</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>11.80455710955711</v>
+        <v>12.97106297927424</v>
       </c>
       <c r="B5">
-        <v>10.73736020874705</v>
+        <v>12.27877927050652</v>
       </c>
       <c r="C5">
-        <v>12.87175401036716</v>
+        <v>13.66334668804196</v>
       </c>
       <c r="D5">
-        <v>10.17242029490493</v>
+        <v>11.91230641204088</v>
       </c>
       <c r="E5">
-        <v>13.43669392420928</v>
+        <v>14.0298195465076</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>11.88090472027971</v>
+        <v>12.97251399316299</v>
       </c>
       <c r="B6">
-        <v>10.68774231248552</v>
+        <v>12.20386875871724</v>
       </c>
       <c r="C6">
-        <v>13.07406712807391</v>
+        <v>13.74115922760873</v>
       </c>
       <c r="D6">
-        <v>10.0561202872086</v>
+        <v>11.79697255034808</v>
       </c>
       <c r="E6">
-        <v>13.70568915335083</v>
+        <v>14.1480554359779</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>11.96225233100233</v>
+        <v>12.97343728410722</v>
       </c>
       <c r="B7">
-        <v>10.65520839997021</v>
+        <v>12.13657888351845</v>
       </c>
       <c r="C7">
-        <v>13.26929626203444</v>
+        <v>13.810295684696</v>
       </c>
       <c r="D7">
-        <v>9.963301137847672</v>
+        <v>11.69357280622586</v>
       </c>
       <c r="E7">
-        <v>13.96120352415698</v>
+        <v>14.25330176198859</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>11.63693327505827</v>
+        <v>12.97402466147943</v>
       </c>
       <c r="B8">
-        <v>10.22516447531713</v>
+        <v>12.07482581491146</v>
       </c>
       <c r="C8">
-        <v>13.0487020747994</v>
+        <v>13.8732235080474</v>
       </c>
       <c r="D8">
-        <v>9.477819216456883</v>
+        <v>11.5988186989599</v>
       </c>
       <c r="E8">
-        <v>13.79604733365965</v>
+        <v>14.34923062399896</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>11.66328088578088</v>
+        <v>12.97439832821241</v>
       </c>
       <c r="B9">
-        <v>10.15403655493277</v>
+        <v>12.01733589526639</v>
       </c>
       <c r="C9">
-        <v>13.17252521662899</v>
+        <v>13.93146076115843</v>
       </c>
       <c r="D9">
-        <v>9.355090866851354</v>
+        <v>11.51069764697346</v>
       </c>
       <c r="E9">
-        <v>13.97147090471041</v>
+        <v>14.43809900945136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>11.70046182983682</v>
+        <v>12.97463603970759</v>
       </c>
       <c r="B10">
-        <v>10.09966647862174</v>
+        <v>11.96327036711358</v>
       </c>
       <c r="C10">
-        <v>13.3012571810519</v>
+        <v>13.9860017123016</v>
       </c>
       <c r="D10">
-        <v>9.252256607858563</v>
+        <v>11.42788572018999</v>
       </c>
       <c r="E10">
-        <v>14.14866705181508</v>
+        <v>14.52138635922518</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>11.5959761072261</v>
+        <v>12.97478726197378</v>
       </c>
       <c r="B11">
-        <v>9.908589648009819</v>
+        <v>11.91204377276339</v>
       </c>
       <c r="C11">
-        <v>13.28336256644238</v>
+        <v>14.03753075118418</v>
       </c>
       <c r="D11">
-        <v>9.015341213569629</v>
+        <v>11.34946135261668</v>
       </c>
       <c r="E11">
-        <v>14.17661100088257</v>
+        <v>14.60011317133089</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11.63232371794871</v>
+        <v>12.97488346334798</v>
       </c>
       <c r="B12">
-        <v>9.86257786924017</v>
+        <v>11.86322793937432</v>
       </c>
       <c r="C12">
-        <v>13.40206956665725</v>
+        <v>14.08653898732164</v>
       </c>
       <c r="D12">
-        <v>8.925731007585162</v>
+        <v>11.27475305206993</v>
       </c>
       <c r="E12">
-        <v>14.33891642831226</v>
+        <v>14.67501387462603</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>11.17117132867132</v>
+        <v>12.97494466269754</v>
       </c>
       <c r="B13">
-        <v>9.322732074788265</v>
+        <v>11.81649764859994</v>
       </c>
       <c r="C13">
-        <v>13.01961058255438</v>
+        <v>14.13339167679514</v>
       </c>
       <c r="D13">
-        <v>8.344227440790132</v>
+        <v>11.20325284266189</v>
       </c>
       <c r="E13">
-        <v>13.99811521655251</v>
+        <v>14.74663648273319</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>10.60126893939393</v>
+        <v>12.97498359520151</v>
       </c>
       <c r="B14">
-        <v>8.677352365950476</v>
+        <v>11.77159815134516</v>
       </c>
       <c r="C14">
-        <v>12.52518551283738</v>
+        <v>14.17836903905785</v>
       </c>
       <c r="D14">
-        <v>7.658892452493493</v>
+        <v>11.134564377676</v>
       </c>
       <c r="E14">
-        <v>13.54364542629437</v>
+        <v>14.81540281272702</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>10.80219988344987</v>
+        <v>12.975008362456</v>
       </c>
       <c r="B15">
-        <v>8.805657299920773</v>
+        <v>11.72832481411935</v>
       </c>
       <c r="C15">
-        <v>12.79874246697897</v>
+        <v>14.22169191079264</v>
       </c>
       <c r="D15">
-        <v>7.748751499065373</v>
+        <v>11.06837040846928</v>
       </c>
       <c r="E15">
-        <v>13.85564826783437</v>
+        <v>14.88164631644271</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>11.24604749417249</v>
+        <v>12.97502411836256</v>
       </c>
       <c r="B16">
-        <v>9.17942958219173</v>
+        <v>11.68650983477646</v>
       </c>
       <c r="C16">
-        <v>13.31266540615324</v>
+        <v>14.26353840194867</v>
       </c>
       <c r="D16">
-        <v>8.085428143232541</v>
+        <v>11.00441157549466</v>
       </c>
       <c r="E16">
-        <v>14.40666684511243</v>
+        <v>14.94563666123047</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>11.38572843822843</v>
+        <v>12.97503414162097</v>
       </c>
       <c r="B17">
-        <v>9.25133463660832</v>
+        <v>11.64601325244035</v>
       </c>
       <c r="C17">
-        <v>13.52012223984854</v>
+        <v>14.30405503080158</v>
       </c>
       <c r="D17">
-        <v>8.121454808924081</v>
+        <v>10.94247209142483</v>
       </c>
       <c r="E17">
-        <v>14.65000206753278</v>
+        <v>15.00759619181711</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>11.46207604895104</v>
+        <v>12.97504051800487</v>
       </c>
       <c r="B18">
-        <v>9.261993276265203</v>
+        <v>11.60671666389841</v>
       </c>
       <c r="C18">
-        <v>13.66215882163687</v>
+        <v>14.34336437211134</v>
       </c>
       <c r="D18">
-        <v>8.097339807816006</v>
+        <v>10.88236977003069</v>
       </c>
       <c r="E18">
-        <v>14.82681229008607</v>
+        <v>15.06771126597906</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>11.54342365967365</v>
+        <v>12.97504457439752</v>
       </c>
       <c r="B19">
-        <v>9.279557163401478</v>
+        <v>11.56851870370638</v>
       </c>
       <c r="C19">
-        <v>13.80729015594582</v>
+        <v>14.38157044508867</v>
       </c>
       <c r="D19">
-        <v>8.081138631279359</v>
+        <v>10.82394888383357</v>
       </c>
       <c r="E19">
-        <v>15.00570868806794</v>
+        <v>15.12614026496148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>11.21810460372959</v>
+        <v>12.97504715490735</v>
       </c>
       <c r="B20">
-        <v>8.892202881984177</v>
+        <v>11.53133170923175</v>
       </c>
       <c r="C20">
-        <v>13.54400632547501</v>
+        <v>14.41876260058295</v>
       </c>
       <c r="D20">
-        <v>7.660944885178992</v>
+        <v>10.76707491756245</v>
       </c>
       <c r="E20">
-        <v>14.77526432228019</v>
+        <v>15.18301939225225</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>11.2444522144522</v>
+        <v>12.97504879652135</v>
       </c>
       <c r="B21">
-        <v>8.858127398863822</v>
+        <v>11.49507920430417</v>
       </c>
       <c r="C21">
-        <v>13.63077703004058</v>
+        <v>14.45501838873853</v>
       </c>
       <c r="D21">
-        <v>7.594883348309971</v>
+        <v>10.71163062674411</v>
       </c>
       <c r="E21">
-        <v>14.89402108059444</v>
+        <v>15.23846696629858</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>11.28163315850815</v>
+        <v>12.97504984084852</v>
       </c>
       <c r="B22">
-        <v>8.836377868815969</v>
+        <v>11.45969396294987</v>
       </c>
       <c r="C22">
-        <v>13.72688844820032</v>
+        <v>14.49040571874717</v>
       </c>
       <c r="D22">
-        <v>7.541937909674299</v>
+        <v>10.65751301728707</v>
       </c>
       <c r="E22">
-        <v>15.02132840734199</v>
+        <v>15.29258666440997</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>11.17714743589743</v>
+        <v>12.97505050520643</v>
       </c>
       <c r="B23">
-        <v>8.674348854700325</v>
+        <v>11.42511649375467</v>
       </c>
       <c r="C23">
-        <v>13.67994601709452</v>
+        <v>14.52498451665818</v>
       </c>
       <c r="D23">
-        <v>7.349447317081143</v>
+        <v>10.60463098988384</v>
       </c>
       <c r="E23">
-        <v>15.00484755471371</v>
+        <v>15.34547002052901</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>11.21349504662003</v>
+        <v>12.97505092784355</v>
       </c>
       <c r="B24">
-        <v>8.654446777376787</v>
+        <v>11.39129383560843</v>
       </c>
       <c r="C24">
-        <v>13.77254331586328</v>
+        <v>14.55880802007866</v>
       </c>
       <c r="D24">
-        <v>7.299768453585985</v>
+        <v>10.55290347432176</v>
       </c>
       <c r="E24">
-        <v>15.12722163965408</v>
+        <v>15.39719838136533</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>10.75234265734265</v>
+        <v>12.97505119670786</v>
       </c>
       <c r="B25">
-        <v>8.138254795278421</v>
+        <v>11.35817858826017</v>
       </c>
       <c r="C25">
-        <v>13.36643051940687</v>
+        <v>14.59192380515556</v>
       </c>
       <c r="D25">
-        <v>6.754440271033338</v>
+        <v>10.50225793161585</v>
       </c>
       <c r="E25">
-        <v>14.75024504365196</v>
+        <v>15.44784446179988</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>10.18244026806525</v>
+        <v>12.97505136774826</v>
       </c>
       <c r="B26">
-        <v>7.514448016040118</v>
+        <v>11.32572812288012</v>
       </c>
       <c r="C26">
-        <v>12.85043252009039</v>
+        <v>14.6243746126164</v>
       </c>
       <c r="D26">
-        <v>6.102098231434822</v>
+        <v>10.45262913697944</v>
       </c>
       <c r="E26">
-        <v>14.26278230469568</v>
+        <v>15.49747359851708</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>10.3833712121212</v>
+        <v>12.97505147655711</v>
       </c>
       <c r="B27">
-        <v>7.662542301083089</v>
+        <v>11.29390393264629</v>
       </c>
       <c r="C27">
-        <v>13.1042001231593</v>
+        <v>14.65619902046793</v>
       </c>
       <c r="D27">
-        <v>6.222222478738894</v>
+        <v>10.40395818046883</v>
       </c>
       <c r="E27">
-        <v>14.5445199455035</v>
+        <v>15.5461447726454</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>10.82721882284381</v>
+        <v>12.97505154577682</v>
       </c>
       <c r="B28">
-        <v>8.054559942019221</v>
+        <v>11.26267109367521</v>
       </c>
       <c r="C28">
-        <v>13.59987770366839</v>
+        <v>14.68743199787843</v>
       </c>
       <c r="D28">
-        <v>6.586802991022021</v>
+        <v>10.35619163862721</v>
       </c>
       <c r="E28">
-        <v>15.0676346546656</v>
+        <v>15.59391145292643</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>10.96689976689975</v>
+        <v>12.97505158981154</v>
       </c>
       <c r="B29">
-        <v>8.143362167417484</v>
+        <v>11.23199781391622</v>
       </c>
       <c r="C29">
-        <v>13.79043736638202</v>
+        <v>14.71810536570687</v>
       </c>
       <c r="D29">
-        <v>6.648671649696982</v>
+        <v>10.30928088208383</v>
       </c>
       <c r="E29">
-        <v>15.28512788410252</v>
+        <v>15.64082229753926</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>11.04324737762236</v>
+        <v>12.97505161782462</v>
       </c>
       <c r="B30">
-        <v>8.169731781359701</v>
+        <v>11.20185505289323</v>
       </c>
       <c r="C30">
-        <v>13.91676297388502</v>
+        <v>14.74824818275602</v>
       </c>
       <c r="D30">
-        <v>6.648584510275613</v>
+        <v>10.26318149241239</v>
       </c>
       <c r="E30">
-        <v>15.43791024496911</v>
+        <v>15.68692174323685</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>11.12459498834497</v>
+        <v>12.97505163564539</v>
       </c>
       <c r="B31">
-        <v>8.20195590897862</v>
+        <v>11.17221619903722</v>
       </c>
       <c r="C31">
-        <v>14.04723406771132</v>
+        <v>14.77788707225355</v>
       </c>
       <c r="D31">
-        <v>6.654804236746853</v>
+        <v>10.21785276764433</v>
       </c>
       <c r="E31">
-        <v>15.59438573994309</v>
+        <v>15.73225050364644</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10.79927593240091</v>
+        <v>12.97505164698222</v>
       </c>
       <c r="B32">
-        <v>7.828325496174481</v>
+        <v>11.14305679422472</v>
       </c>
       <c r="C32">
-        <v>13.77022636862735</v>
+        <v>14.80704649973973</v>
       </c>
       <c r="D32">
-        <v>6.255599336459275</v>
+        <v>10.1732573003446</v>
       </c>
       <c r="E32">
-        <v>15.34295252834255</v>
+        <v>15.77684599361985</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>10.82562354312353</v>
+        <v>12.97505165419425</v>
       </c>
       <c r="B33">
-        <v>7.807134881427299</v>
+        <v>11.11435429730302</v>
       </c>
       <c r="C33">
-        <v>13.84411220481975</v>
+        <v>14.83574901108549</v>
       </c>
       <c r="D33">
-        <v>6.209243505264475</v>
+        <v>10.12936061554617</v>
       </c>
       <c r="E33">
-        <v>15.44200358098258</v>
+        <v>15.82074269284233</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>10.86280448717947</v>
+        <v>12.97505165878225</v>
       </c>
       <c r="B34">
-        <v>7.797514760732174</v>
+        <v>11.08608788003679</v>
       </c>
       <c r="C34">
-        <v>13.92809421362676</v>
+        <v>14.86401543752771</v>
       </c>
       <c r="D34">
-        <v>6.17484839743425</v>
+        <v>10.08613085841751</v>
       </c>
       <c r="E34">
-        <v>15.55076057692468</v>
+        <v>15.86397245914698</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>10.75831876456875</v>
+        <v>12.97505166170094</v>
       </c>
       <c r="B35">
-        <v>7.646931869093038</v>
+        <v>11.05823825018742</v>
       </c>
       <c r="C35">
-        <v>13.86970566004446</v>
+        <v>14.89186507321446</v>
       </c>
       <c r="D35">
-        <v>5.999863138547316</v>
+        <v>10.04353852352039</v>
       </c>
       <c r="E35">
-        <v>15.51677439059018</v>
+        <v>15.90656479988149</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>10.79466637529136</v>
+        <v>12.97505166355769</v>
       </c>
       <c r="B36">
-        <v>7.637855370556892</v>
+        <v>11.03078749743199</v>
       </c>
       <c r="C36">
-        <v>13.95147738002582</v>
+        <v>14.9193158296834</v>
       </c>
       <c r="D36">
-        <v>5.966740569083193</v>
+        <v>10.00155621905811</v>
       </c>
       <c r="E36">
-        <v>15.62259218149952</v>
+        <v>15.94854710805727</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>10.33351398601397</v>
+        <v>12.97505166473888</v>
       </c>
       <c r="B37">
-        <v>7.131923283583806</v>
+        <v>11.00371895861256</v>
       </c>
       <c r="C37">
-        <v>13.53510468844413</v>
+        <v>14.9463843708652</v>
       </c>
       <c r="D37">
-        <v>5.437103542057449</v>
+        <v>9.960158460725236</v>
       </c>
       <c r="E37">
-        <v>15.22992442997049</v>
+        <v>15.98994486875253</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>9.763611596736576</v>
+        <v>12.97505166549031</v>
       </c>
       <c r="B38">
-        <v>6.517858936387684</v>
+        <v>10.97701709942847</v>
       </c>
       <c r="C38">
-        <v>13.00936425708547</v>
+        <v>14.97308623155214</v>
       </c>
       <c r="D38">
-        <v>4.799661266493312</v>
+        <v>9.919321490728938</v>
       </c>
       <c r="E38">
-        <v>14.72756192697984</v>
+        <v>16.03078184025168</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>9.964542540792518</v>
+        <v>12.97505166596833</v>
       </c>
       <c r="B39">
-        <v>6.675220781153222</v>
+        <v>10.95066741018174</v>
       </c>
       <c r="C39">
-        <v>13.25386430043182</v>
+        <v>14.99943592175493</v>
       </c>
       <c r="D39">
-        <v>4.933959023290999</v>
+        <v>9.879023118318322</v>
       </c>
       <c r="E39">
-        <v>14.99512605829404</v>
+        <v>16.07108021361834</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>10.40839015151513</v>
+        <v>12.97505166627243</v>
       </c>
       <c r="B40">
-        <v>7.07606889678725</v>
+        <v>10.92465631358641</v>
       </c>
       <c r="C40">
-        <v>13.74071140624301</v>
+        <v>15.02544701895846</v>
       </c>
       <c r="D40">
-        <v>5.312044581207553</v>
+        <v>9.839242578773762</v>
       </c>
       <c r="E40">
-        <v>15.50473572182271</v>
+        <v>16.1108607537711</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>10.54807109557108</v>
+        <v>12.97505166646589</v>
       </c>
       <c r="B41">
-        <v>7.173298177138511</v>
+        <v>10.89897108297761</v>
       </c>
       <c r="C41">
-        <v>13.92284401400364</v>
+        <v>15.05113224995417</v>
       </c>
       <c r="D41">
-        <v>5.386801308258129</v>
+        <v>9.799960408307445</v>
       </c>
       <c r="E41">
-        <v>15.70934088288402</v>
+        <v>16.15014292462433</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>10.62441870629368</v>
+        <v>12.97505166658896</v>
       </c>
       <c r="B42">
-        <v>7.207721535448645</v>
+        <v>10.87359976952089</v>
       </c>
       <c r="C42">
-        <v>14.04111587713872</v>
+        <v>15.07650356365702</v>
       </c>
       <c r="D42">
-        <v>5.399031307940796</v>
+        <v>9.761158332732753</v>
       </c>
       <c r="E42">
-        <v>15.84980610464657</v>
+        <v>16.18894500044516</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>10.7057663170163</v>
+        <v>12.97505166666725</v>
       </c>
       <c r="B43">
-        <v>7.247653122869068</v>
+        <v>10.84853113724007</v>
       </c>
       <c r="C43">
-        <v>14.16387951116352</v>
+        <v>15.10157219609442</v>
       </c>
       <c r="D43">
-        <v>5.417038576973243</v>
+        <v>9.72281916809343</v>
       </c>
       <c r="E43">
-        <v>15.99449405705935</v>
+        <v>16.22728416524106</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>10.38044726107224</v>
+        <v>12.97505166671705</v>
       </c>
       <c r="B44">
-        <v>6.881408225878463</v>
+        <v>10.82375460486075</v>
       </c>
       <c r="C44">
-        <v>13.87948629626601</v>
+        <v>15.12634872857335</v>
       </c>
       <c r="D44">
-        <v>5.029128848406382</v>
+        <v>9.684926731718136</v>
       </c>
       <c r="E44">
-        <v>15.73176567373809</v>
+        <v>16.26517660171597</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>10.40679487179485</v>
+        <v>12.97505166674874</v>
       </c>
       <c r="B45">
-        <v>6.867303174377771</v>
+        <v>10.79926019361551</v>
       </c>
       <c r="C45">
-        <v>13.94628656921193</v>
+        <v>15.15084313988196</v>
       </c>
       <c r="D45">
-        <v>4.993609451067756</v>
+        <v>9.647465762393603</v>
       </c>
       <c r="E45">
-        <v>15.81998029252194</v>
+        <v>16.30263757110387</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>10.44397581585079</v>
+        <v>12.97505166676889</v>
       </c>
       <c r="B46">
-        <v>6.864488592468218</v>
+        <v>10.7750384802804</v>
       </c>
       <c r="C46">
-        <v>14.02346303923337</v>
+        <v>15.17506485325739</v>
       </c>
       <c r="D46">
-        <v>4.96962251663744</v>
+        <v>9.610421848538936</v>
       </c>
       <c r="E46">
-        <v>15.91832911506414</v>
+        <v>16.33968148499885</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>10.33949009324007</v>
+        <v>12.97505166678171</v>
       </c>
       <c r="B47">
-        <v>6.720449324108873</v>
+        <v>10.75108055481567</v>
       </c>
       <c r="C47">
-        <v>13.95853086237127</v>
+        <v>15.19902277874776</v>
       </c>
       <c r="D47">
-        <v>4.804644865951069</v>
+        <v>9.573781363422048</v>
       </c>
       <c r="E47">
-        <v>15.87433532052907</v>
+        <v>16.37632197014138</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>10.37583770396268</v>
+        <v>12.97505166678987</v>
       </c>
       <c r="B48">
-        <v>6.717671032676586</v>
+        <v>10.72737798207093</v>
       </c>
       <c r="C48">
-        <v>14.03400437524877</v>
+        <v>15.22272535150881</v>
       </c>
       <c r="D48">
-        <v>4.78115457303564</v>
+        <v>9.537531406592237</v>
       </c>
       <c r="E48">
-        <v>15.97052083488972</v>
+        <v>16.41257192698751</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>9.914685314685292</v>
+        <v>12.97505166679506</v>
       </c>
       <c r="B49">
-        <v>6.217806806919176</v>
+        <v>10.70392276708784</v>
       </c>
       <c r="C49">
-        <v>13.61156382245141</v>
+        <v>15.24618056650228</v>
       </c>
       <c r="D49">
-        <v>4.260797538922908</v>
+        <v>9.50165975081498</v>
       </c>
       <c r="E49">
-        <v>15.56857309044768</v>
+        <v>16.44844358277514</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>9.344782925407898</v>
+        <v>12.97505166679836</v>
       </c>
       <c r="B50">
-        <v>5.609593772572708</v>
+        <v>10.68070732359582</v>
       </c>
       <c r="C50">
-        <v>13.07997207824309</v>
+        <v>15.2693960100009</v>
       </c>
       <c r="D50">
-        <v>3.632304074125293</v>
+        <v>9.466154793890068</v>
       </c>
       <c r="E50">
-        <v>15.0572617766905</v>
+        <v>16.48394853970665</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>9.545713869463841</v>
+        <v>12.97505166680046</v>
       </c>
       <c r="B51">
-        <v>5.772603042343556</v>
+        <v>10.65772444534876</v>
       </c>
       <c r="C51">
-        <v>13.31882469658413</v>
+        <v>15.29237888825217</v>
       </c>
       <c r="D51">
-        <v>3.775238822140025</v>
+        <v>9.431005514814743</v>
       </c>
       <c r="E51">
-        <v>15.31618891678766</v>
+        <v>16.51909781878618</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>9.989561480186454</v>
+        <v>12.9750516668018</v>
       </c>
       <c r="B52">
-        <v>6.178906337037581</v>
+        <v>10.63496727999567</v>
       </c>
       <c r="C52">
-        <v>13.80021662333533</v>
+        <v>15.31513605360792</v>
       </c>
       <c r="D52">
-        <v>4.161667356472253</v>
+        <v>9.396201433822331</v>
       </c>
       <c r="E52">
-        <v>15.81745560390066</v>
+        <v>16.55390189978126</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>10.1292424242424</v>
+        <v>12.97505166680265</v>
       </c>
       <c r="B53">
-        <v>6.28140927735549</v>
+        <v>10.61242930521698</v>
       </c>
       <c r="C53">
-        <v>13.97707557112931</v>
+        <v>15.33767402838832</v>
       </c>
       <c r="D53">
-        <v>4.244489450441522</v>
+        <v>9.361732575885641</v>
       </c>
       <c r="E53">
-        <v>16.01399539804327</v>
+        <v>16.58837075771965</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>10.20559003496501</v>
+        <v>12.97505166680319</v>
       </c>
       <c r="B54">
-        <v>6.320934679266607</v>
+        <v>10.59010430689053</v>
       </c>
       <c r="C54">
-        <v>14.09024539066341</v>
+        <v>15.35999902671584</v>
       </c>
       <c r="D54">
-        <v>4.26452235246096</v>
+        <v>9.327589437324907</v>
       </c>
       <c r="E54">
-        <v>16.14665771746905</v>
+        <v>16.62251389628146</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>10.28693764568762</v>
+        <v>12.97505166680353</v>
       </c>
       <c r="B55">
-        <v>6.365805852591279</v>
+        <v>10.5679863590806</v>
       </c>
       <c r="C55">
-        <v>14.20806943878396</v>
+        <v>15.38211697452646</v>
       </c>
       <c r="D55">
-        <v>4.290084066223655</v>
+        <v>9.293762955203437</v>
       </c>
       <c r="E55">
-        <v>16.28379122515158</v>
+        <v>16.65634037840362</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>9.96161858974356</v>
+        <v>12.97505166680375</v>
       </c>
       <c r="B56">
-        <v>6.004346569133208</v>
+        <v>10.54606980566691</v>
       </c>
       <c r="C56">
-        <v>13.91889061035391</v>
+        <v>15.40403352794058</v>
       </c>
       <c r="D56">
-        <v>3.90949330196527</v>
+        <v>9.260244479231723</v>
       </c>
       <c r="E56">
-        <v>16.01374387752185</v>
+        <v>16.68985885437577</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>9.987966200466172</v>
+        <v>12.97505166680389</v>
       </c>
       <c r="B57">
-        <v>5.994881033407975</v>
+        <v>10.52434924345259</v>
       </c>
       <c r="C57">
-        <v>13.98105136752437</v>
+        <v>15.42575409015519</v>
       </c>
       <c r="D57">
-        <v>3.881069431697176</v>
+        <v>9.227025745933197</v>
       </c>
       <c r="E57">
-        <v>16.09486296923517</v>
+        <v>16.72307758767458</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>10.02514714452211</v>
+        <v>12.97505166680398</v>
       </c>
       <c r="B58">
-        <v>5.996567189047129</v>
+        <v>10.50281950660787</v>
       </c>
       <c r="C58">
-        <v>14.0537270999971</v>
+        <v>15.44728382700008</v>
       </c>
       <c r="D58">
-        <v>3.86396578135507</v>
+        <v>9.194098854853006</v>
       </c>
       <c r="E58">
-        <v>16.18632850768916</v>
+        <v>16.75600447875495</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>9.920661421911394</v>
+        <v>12.97505166680403</v>
       </c>
       <c r="B59">
-        <v>5.856896693986132</v>
+        <v>10.48147565232287</v>
       </c>
       <c r="C59">
-        <v>13.98442614983666</v>
+        <v>15.4686276812852</v>
       </c>
       <c r="D59">
-        <v>3.70566959285219</v>
+        <v>9.161456246615755</v>
       </c>
       <c r="E59">
-        <v>16.1356532509706</v>
+        <v>16.78864708699231</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>9.957009032634003</v>
+        <v>12.97505166680407</v>
       </c>
       <c r="B60">
-        <v>5.858361564236152</v>
+        <v>10.46031294755637</v>
       </c>
       <c r="C60">
-        <v>14.05565650103186</v>
+        <v>15.48979038605176</v>
       </c>
       <c r="D60">
-        <v>3.688668655731328</v>
+        <v>9.129090682659546</v>
       </c>
       <c r="E60">
-        <v>16.22534940953668</v>
+        <v>16.82101265094859</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>9.495856643356616</v>
+        <v>12.97505166680409</v>
       </c>
       <c r="B61">
-        <v>5.362620819395108</v>
+        <v>10.43932685678009</v>
       </c>
       <c r="C61">
-        <v>13.62909246731812</v>
+        <v>15.5107764768281</v>
       </c>
       <c r="D61">
-        <v>3.174617941476729</v>
+        <v>9.096995226492441</v>
       </c>
       <c r="E61">
-        <v>15.8170953452365</v>
+        <v>16.85310810711574</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>8.925954254079223</v>
+        <v>12.97505166680411</v>
       </c>
       <c r="B62">
-        <v>4.758417129739065</v>
+        <v>10.41851303062843</v>
       </c>
       <c r="C62">
-        <v>13.09349137841938</v>
+        <v>15.53159030297978</v>
       </c>
       <c r="D62">
-        <v>2.552256240242994</v>
+        <v>9.065163226333794</v>
       </c>
       <c r="E62">
-        <v>15.29965226791545</v>
+        <v>16.88494010727442</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>9.126885198135165</v>
+        <v>12.97505166680411</v>
       </c>
       <c r="B63">
-        <v>4.925326798085481</v>
+        <v>10.39786729537342</v>
       </c>
       <c r="C63">
-        <v>13.32844359818485</v>
+        <v>15.55223603823481</v>
       </c>
       <c r="D63">
-        <v>2.701156133117282</v>
+        <v>9.033588299017472</v>
       </c>
       <c r="E63">
-        <v>15.55261426315305</v>
+        <v>16.91651503459076</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>9.570732808857777</v>
+        <v>12.97505166680412</v>
       </c>
       <c r="B64">
-        <v>5.335426409634373</v>
+        <v>10.37738564315244</v>
       </c>
       <c r="C64">
-        <v>13.80603920808118</v>
+        <v>15.5727176904558</v>
       </c>
       <c r="D64">
-        <v>3.093390633053619</v>
+        <v>9.002264315046586</v>
       </c>
       <c r="E64">
-        <v>16.04807498466193</v>
+        <v>16.94783901856166</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>9.710413752913722</v>
+        <v>12.97505166680412</v>
       </c>
       <c r="B65">
-        <v>5.441626149673503</v>
+        <v>10.35706422288428</v>
       </c>
       <c r="C65">
-        <v>13.97920135615394</v>
+        <v>15.59303911072397</v>
       </c>
       <c r="D65">
-        <v>3.181866494305027</v>
+        <v>8.971185384700631</v>
       </c>
       <c r="E65">
-        <v>16.23896101152242</v>
+        <v>16.97891794890761</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>9.786761363636328</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B66">
-        <v>5.484753122378299</v>
+        <v>10.3368993318148</v>
       </c>
       <c r="C66">
-        <v>14.08876960489436</v>
+        <v>15.61320400179345</v>
       </c>
       <c r="D66">
-        <v>3.20740752352993</v>
+        <v>8.940345845105865</v>
       </c>
       <c r="E66">
-        <v>16.36611520374273</v>
+        <v>17.00975748850239</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>9.868108974358941</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B67">
-        <v>5.533134670614263</v>
+        <v>10.31688740764006</v>
       </c>
       <c r="C67">
-        <v>14.20308327810362</v>
+        <v>15.6332159259682</v>
       </c>
       <c r="D67">
-        <v>3.238337892431711</v>
+        <v>8.909740248188523</v>
       </c>
       <c r="E67">
-        <v>16.49788005628617</v>
+        <v>17.04036308541973</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>9.542789918414883</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B68">
-        <v>5.175098363325251</v>
+        <v>10.29702502115907</v>
       </c>
       <c r="C68">
-        <v>13.91048147350452</v>
+        <v>15.65307831244919</v>
       </c>
       <c r="D68">
-        <v>2.862982118470766</v>
+        <v>8.879363349438293</v>
       </c>
       <c r="E68">
-        <v>16.222597718359</v>
+        <v>17.07073998416996</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>9.569137529137494</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B69">
-        <v>5.168971983765827</v>
+        <v>10.27730886941358</v>
       </c>
       <c r="C69">
-        <v>13.96930307450916</v>
+        <v>15.67279446419467</v>
       </c>
       <c r="D69">
-        <v>2.839665046867431</v>
+        <v>8.849210097416428</v>
       </c>
       <c r="E69">
-        <v>16.29861001140756</v>
+        <v>17.10089323619183</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>9.606318473193436</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B70">
-        <v>5.173916851842932</v>
+        <v>10.2577357692758</v>
       </c>
       <c r="C70">
-        <v>14.03872009454394</v>
+        <v>15.69236756433246</v>
       </c>
       <c r="D70">
-        <v>2.82754516712502</v>
+        <v>8.819275623949059</v>
       </c>
       <c r="E70">
-        <v>16.38509177926185</v>
+        <v>17.1308277096592</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>9.501832750582716</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B71">
-        <v>5.037427813838601</v>
+        <v>10.23830265144889</v>
       </c>
       <c r="C71">
-        <v>13.96623768732683</v>
+        <v>15.71180068215936</v>
       </c>
       <c r="D71">
-        <v>2.674114597312074</v>
+        <v>8.789555234951784</v>
       </c>
       <c r="E71">
-        <v>16.32955090385336</v>
+        <v>17.16054809865647</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>9.538180361305326</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B72">
-        <v>5.04199989945775</v>
+        <v>10.21900655484832</v>
       </c>
       <c r="C72">
-        <v>14.0343608231529</v>
+        <v>15.73109677875994</v>
       </c>
       <c r="D72">
-        <v>2.661865736018229</v>
+        <v>8.76004440183657</v>
       </c>
       <c r="E72">
-        <v>16.41449498659242</v>
+        <v>17.19005893177169</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>9.077027972027938</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B73">
-        <v>4.549294979483598</v>
+        <v>10.19984462133471</v>
       </c>
       <c r="C73">
-        <v>13.60476096457228</v>
+        <v>15.75025871227355</v>
       </c>
       <c r="D73">
-        <v>2.152457915239361</v>
+        <v>8.73073875345645</v>
       </c>
       <c r="E73">
-        <v>16.00159802881652</v>
+        <v>17.21936458015181</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>8.507125582750545</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B74">
-        <v>3.948058423994361</v>
+        <v>10.18081409077184</v>
       </c>
       <c r="C74">
-        <v>13.06619274150673</v>
+        <v>15.76928924283641</v>
       </c>
       <c r="D74">
-        <v>1.534634054121147</v>
+        <v>8.701634068547385</v>
       </c>
       <c r="E74">
-        <v>15.47961711137994</v>
+        <v>17.24846926506087</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>8.708056526806487</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B75">
-        <v>4.11786909443253</v>
+        <v>10.16191229638566</v>
       </c>
       <c r="C75">
-        <v>13.29824395918045</v>
+        <v>15.7881910372226</v>
       </c>
       <c r="D75">
-        <v>1.687970646830059</v>
+        <v>8.672726268630369</v>
       </c>
       <c r="E75">
-        <v>15.72814240678292</v>
+        <v>17.27737706497789</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>9.151904137529101</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B76">
-        <v>4.530806002821457</v>
+        <v>10.14313666040191</v>
       </c>
       <c r="C76">
-        <v>13.77300227223675</v>
+        <v>15.80696667320634</v>
       </c>
       <c r="D76">
-        <v>2.084544417826122</v>
+        <v>8.644011411339909</v>
       </c>
       <c r="E76">
-        <v>16.21926385723208</v>
+        <v>17.30609192226835</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>9.291585081585044</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B77">
-        <v>4.639781638094217</v>
+        <v>10.12448468994256</v>
       </c>
       <c r="C77">
-        <v>13.94338852507587</v>
+        <v>15.8256186436657</v>
       </c>
       <c r="D77">
-        <v>2.177265644483845</v>
+        <v>8.615485684148041</v>
       </c>
       <c r="E77">
-        <v>16.40590451868624</v>
+        <v>17.33461764946022</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>9.367932692307653</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B78">
-        <v>4.685625292835919</v>
+        <v>10.10595397316222</v>
       </c>
       <c r="C78">
-        <v>14.05024009177939</v>
+        <v>15.84414936044604</v>
       </c>
       <c r="D78">
-        <v>2.206961480345437</v>
+        <v>8.587145398455554</v>
       </c>
       <c r="E78">
-        <v>16.52890390426987</v>
+        <v>17.3629579351527</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>9.449280303030264</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B79">
-        <v>4.736666390409965</v>
+        <v>10.08754217560778</v>
       </c>
       <c r="C79">
-        <v>14.16189421565056</v>
+        <v>15.86256115800048</v>
       </c>
       <c r="D79">
-        <v>2.24195927896124</v>
+        <v>8.558986984024529</v>
       </c>
       <c r="E79">
-        <v>16.65660132709929</v>
+        <v>17.39111634958373</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>9.123961247086207</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B80">
-        <v>4.381234479107995</v>
+        <v>10.06924703678568</v>
       </c>
       <c r="C80">
-        <v>13.86668801506442</v>
+        <v>15.88085629682258</v>
       </c>
       <c r="D80">
-        <v>1.87058658494286</v>
+        <v>8.531006983728377</v>
       </c>
       <c r="E80">
-        <v>16.37733590922955</v>
+        <v>17.41909634987988</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>9.150308857808817</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B81">
-        <v>4.377659226632053</v>
+        <v>10.05106636692243</v>
       </c>
       <c r="C81">
-        <v>13.92295848898558</v>
+        <v>15.89903696668583</v>
       </c>
       <c r="D81">
-        <v>1.851171125524349</v>
+        <v>8.503202048597538</v>
       </c>
       <c r="E81">
-        <v>16.44944659009328</v>
+        <v>17.44690128501072</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>9.187489801864761</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B82">
-        <v>4.385103748219517</v>
+        <v>10.03299804390533</v>
       </c>
       <c r="C82">
-        <v>13.98987585551</v>
+        <v>15.91710528970292</v>
       </c>
       <c r="D82">
-        <v>1.842874135929984</v>
+        <v>8.475568933140735</v>
       </c>
       <c r="E82">
-        <v>16.53210546779954</v>
+        <v>17.47453440046752</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>9.083004079254039</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B83">
-        <v>4.251064601723201</v>
+        <v>10.01504001039134</v>
       </c>
       <c r="C83">
-        <v>13.91494355678488</v>
+        <v>15.93506332321692</v>
       </c>
       <c r="D83">
-        <v>1.693190351849923</v>
+        <v>8.448104490923281</v>
       </c>
       <c r="E83">
-        <v>16.47281780665816</v>
+        <v>17.50199884268498</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>9.11935168997665</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B84">
-        <v>4.258038449627328</v>
+        <v>9.997190271072755</v>
       </c>
       <c r="C84">
-        <v>13.98066493032597</v>
+        <v>15.9529130625355</v>
       </c>
       <c r="D84">
-        <v>1.684614668994266</v>
+        <v>8.420805670385388</v>
       </c>
       <c r="E84">
-        <v>16.55408871095904</v>
+        <v>17.52929766322287</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>8.658199300699261</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B85">
-        <v>3.767688721314908</v>
+        <v>9.979446890089609</v>
       </c>
       <c r="C85">
-        <v>13.54870988008361</v>
+        <v>15.97065644351865</v>
       </c>
       <c r="D85">
-        <v>1.178808803031568</v>
+        <v>8.393669510884726</v>
       </c>
       <c r="E85">
-        <v>16.13758979836695</v>
+        <v>17.55643382272353</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>8.088296911421868</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B86">
-        <v>3.168762275570126</v>
+        <v>9.961807988579201</v>
       </c>
       <c r="C86">
-        <v>13.00783154727361</v>
+        <v>15.98829534502906</v>
       </c>
       <c r="D86">
-        <v>0.5645179498868114</v>
+        <v>8.366693138948762</v>
       </c>
       <c r="E86">
-        <v>15.61207587295692</v>
+        <v>17.5834101946595</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>8.28922785547781</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B87">
-        <v>3.340839396633903</v>
+        <v>9.944271742353965</v>
       </c>
       <c r="C87">
-        <v>13.23761631432172</v>
+        <v>16.00583159125429</v>
       </c>
       <c r="D87">
-        <v>0.7213207797088925</v>
+        <v>8.339873764723361</v>
       </c>
       <c r="E87">
-        <v>15.85713493124673</v>
+        <v>17.6102295688849</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>8.733075466200424</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B88">
-        <v>3.756000457131922</v>
+        <v>9.926836379699594</v>
       </c>
       <c r="C88">
-        <v>13.71015047526893</v>
+        <v>16.02326695390866</v>
       </c>
       <c r="D88">
-        <v>1.121296097819532</v>
+        <v>8.313208678605317</v>
       </c>
       <c r="E88">
-        <v>16.34485483458132</v>
+        <v>17.63689465500294</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>8.872756410256367</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B89">
-        <v>3.867159247862166</v>
+        <v>9.909500179285867</v>
       </c>
       <c r="C89">
-        <v>13.87835357265057</v>
+        <v>16.04060315432239</v>
       </c>
       <c r="D89">
-        <v>1.2173561726238</v>
+        <v>8.286695248047231</v>
       </c>
       <c r="E89">
-        <v>16.52815664788894</v>
+        <v>17.66340808556103</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>8.949104020978975</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B90">
-        <v>3.915146307763308</v>
+        <v>9.892261468183232</v>
       </c>
       <c r="C90">
-        <v>13.98306173419464</v>
+        <v>16.05784186542503</v>
       </c>
       <c r="D90">
-        <v>1.250330063797192</v>
+        <v>8.260330914524141</v>
       </c>
       <c r="E90">
-        <v>16.64787797816076</v>
+        <v>17.68977241908411</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>9.030451631701586</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B91">
-        <v>3.96829225405274</v>
+        <v>9.875118619978648</v>
       </c>
       <c r="C91">
-        <v>14.09261100935043</v>
+        <v>16.07498471362961</v>
       </c>
       <c r="D91">
-        <v>1.288546950732168</v>
+        <v>8.23411319065195</v>
       </c>
       <c r="E91">
-        <v>16.772356312671</v>
+        <v>17.71599014295631</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>8.70513257575753</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B92">
-        <v>3.614927779190616</v>
+        <v>9.858070052984703</v>
       </c>
       <c r="C92">
-        <v>13.79533737232444</v>
+        <v>16.09203328062355</v>
       </c>
       <c r="D92">
-        <v>0.9203361278950712</v>
+        <v>8.208039657448509</v>
       </c>
       <c r="E92">
-        <v>16.48992902361999</v>
+        <v>17.74206367615975</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>8.731480186480141</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B93">
-        <v>3.613383647993645</v>
+        <v>9.841114228536416</v>
       </c>
       <c r="C93">
-        <v>13.84957672496664</v>
+        <v>16.10898910507184</v>
       </c>
       <c r="D93">
-        <v>0.9040270004120403</v>
+        <v>8.182107961728793</v>
       </c>
       <c r="E93">
-        <v>16.55893337254824</v>
+        <v>17.76799537187946</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>8.768661130536083</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B94">
-        <v>3.622824028222983</v>
+        <v>9.824249649370529</v>
       </c>
       <c r="C94">
-        <v>13.91449823284918</v>
+        <v>16.12585368423773</v>
       </c>
       <c r="D94">
-        <v>0.8987824132035618</v>
+        <v>8.156315813626259</v>
       </c>
       <c r="E94">
-        <v>16.6385398478686</v>
+        <v>17.793787519982</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>8.664175407925363</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B95">
-        <v>3.490746487971331</v>
+        <v>9.80747485808247</v>
       </c>
       <c r="C95">
-        <v>13.8376043278794</v>
+        <v>16.14262847552579</v>
       </c>
       <c r="D95">
-        <v>0.752098646988375</v>
+        <v>8.130660984232954</v>
       </c>
       <c r="E95">
-        <v>16.57625216886235</v>
+        <v>17.8194423493753</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>8.700523018647973</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B96">
-        <v>3.499648659841427</v>
+        <v>9.79078843565647</v>
       </c>
       <c r="C96">
-        <v>13.90139737745452</v>
+        <v>16.15931489795179</v>
       </c>
       <c r="D96">
-        <v>0.7464720811448133</v>
+        <v>8.105141303351534</v>
       </c>
       <c r="E96">
-        <v>16.65457395615113</v>
+        <v>17.84496203025672</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>8.239370629370585</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B97">
-        <v>3.011194905242135</v>
+        <v>9.774189000064649</v>
       </c>
       <c r="C97">
-        <v>13.46754635349904</v>
+        <v>16.17591433354361</v>
       </c>
       <c r="D97">
-        <v>0.2435658567519701</v>
+        <v>8.079754657352755</v>
       </c>
       <c r="E97">
-        <v>16.2351754019892</v>
+        <v>17.8703486762555</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>7.669468240093192</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B98">
-        <v>2.41413297879533</v>
+        <v>9.757675204931161</v>
       </c>
       <c r="C98">
-        <v>12.92480350139105</v>
+        <v>16.1924281286771</v>
       </c>
       <c r="D98">
-        <v>-0.3678734601996538</v>
+        <v>8.054498987132449</v>
       </c>
       <c r="E98">
-        <v>15.70680994038604</v>
+        <v>17.89560434647581</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>7.870399184149134</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B99">
-        <v>2.588044026180738</v>
+        <v>9.741245738257728</v>
       </c>
       <c r="C99">
-        <v>13.15275434211753</v>
+        <v>16.20885759535053</v>
       </c>
       <c r="D99">
-        <v>-0.2082658821042056</v>
+        <v>8.029372286162404</v>
       </c>
       <c r="E99">
-        <v>15.94906425040247</v>
+        <v>17.92073104744586</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>8.314246794871746</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B100">
-        <v>3.005009248746129</v>
+        <v>9.724899321207157</v>
       </c>
       <c r="C100">
-        <v>13.62348434099736</v>
+        <v>16.2252040124011</v>
       </c>
       <c r="D100">
-        <v>0.1944686637811071</v>
+        <v>8.004372598629914</v>
       </c>
       <c r="E100">
-        <v>16.43402492596238</v>
+        <v>17.94573073497834</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>8.453927738927691</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B101">
-        <v>3.11794323487742</v>
+        <v>9.708634706941664</v>
       </c>
       <c r="C101">
-        <v>13.78991224297796</v>
+        <v>16.24146862666659</v>
       </c>
       <c r="D101">
-        <v>0.2932436656668269</v>
+        <v>7.979498017661138</v>
       </c>
       <c r="E101">
-        <v>16.61461181218856</v>
+        <v>17.97060531594712</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>8.530275349650298</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B102">
-        <v>3.167677291456931</v>
+        <v>9.692450679512985</v>
       </c>
       <c r="C102">
-        <v>13.89287340784366</v>
+        <v>16.25765265409527</v>
       </c>
       <c r="D102">
-        <v>0.3288893576969088</v>
+        <v>7.954746683623682</v>
       </c>
       <c r="E102">
-        <v>16.73166134160369</v>
+        <v>17.99535664998458</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>8.611622960372911</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B103">
-        <v>3.222542775404987</v>
+        <v>9.676346052801504</v>
       </c>
       <c r="C103">
-        <v>14.00070314534083</v>
+        <v>16.27375728080675</v>
       </c>
       <c r="D103">
-        <v>0.3697360505418246</v>
+        <v>7.930116782504134</v>
       </c>
       <c r="E103">
-        <v>16.853509870204</v>
+        <v>18.01998655110413</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>8.286303904428852</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B104">
-        <v>2.870871091966993</v>
+        <v>9.660319669501773</v>
       </c>
       <c r="C104">
-        <v>13.70173671689071</v>
+        <v>16.28978366410649</v>
       </c>
       <c r="D104">
-        <v>0.004114128778891057</v>
+        <v>7.905606544356548</v>
       </c>
       <c r="E104">
-        <v>16.56849368007881</v>
+        <v>18.04449678925171</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>8.312651515151464</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B105">
-        <v>2.870993693075253</v>
+        <v>9.644370400151956</v>
       </c>
       <c r="C105">
-        <v>13.75430933722767</v>
+        <v>16.3057329334563</v>
       </c>
       <c r="D105">
-        <v>-0.009645951613137527</v>
+        <v>7.881214241818115</v>
       </c>
       <c r="E105">
-        <v>16.63494898191607</v>
+        <v>18.06888909179014</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>8.349832459207406</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B106">
-        <v>2.882075409114759</v>
+        <v>9.628497142204932</v>
       </c>
       <c r="C106">
-        <v>13.81758950930005</v>
+        <v>16.32160619140333</v>
       </c>
       <c r="D106">
-        <v>-0.0123803323180649</v>
+        <v>7.856938188688515</v>
       </c>
       <c r="E106">
-        <v>16.71204525073288</v>
+        <v>18.09316514491974</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>8.245346736596686</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B107">
-        <v>2.751614447422732</v>
+        <v>9.612698819138821</v>
       </c>
       <c r="C107">
-        <v>13.73907902577064</v>
+        <v>16.33740451446944</v>
       </c>
       <c r="D107">
-        <v>-0.1565917549770273</v>
+        <v>7.832776738569614</v>
       </c>
       <c r="E107">
-        <v>16.6472852281704</v>
+        <v>18.11732659503864</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>8.281694347319295</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B108">
-        <v>2.762109057518336</v>
+        <v>9.596974379604998</v>
       </c>
       <c r="C108">
-        <v>13.80127963712025</v>
+        <v>16.35312895400326</v>
       </c>
       <c r="D108">
-        <v>-0.1597828967194328</v>
+        <v>7.80872828356244</v>
       </c>
       <c r="E108">
-        <v>16.72317159135803</v>
+        <v>18.14137505004582</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>7.820541958041908</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B109">
-        <v>2.275224196392735</v>
+        <v>9.581322796611596</v>
       </c>
       <c r="C109">
-        <v>13.36585971969108</v>
+        <v>16.36878053699666</v>
       </c>
       <c r="D109">
-        <v>-0.6602897056016666</v>
+        <v>7.784791253018476</v>
       </c>
       <c r="E109">
-        <v>16.30137362168548</v>
+        <v>18.16531208058978</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>7.250639568764514</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B110">
-        <v>1.679708193856326</v>
+        <v>9.565743066740778</v>
       </c>
       <c r="C110">
-        <v>12.8215709436727</v>
+        <v>16.38436026686748</v>
       </c>
       <c r="D110">
-        <v>-1.269364735958293</v>
+        <v>7.760964112342563</v>
       </c>
       <c r="E110">
-        <v>15.77064387348732</v>
+        <v>18.18913922126569</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>7.451570512820457</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B111">
-        <v>1.855142751273714</v>
+        <v>9.550234209398031</v>
       </c>
       <c r="C111">
-        <v>13.0479982743672</v>
+        <v>16.39986912421023</v>
       </c>
       <c r="D111">
-        <v>-1.107427150336772</v>
+        <v>7.737245361844812</v>
       </c>
       <c r="E111">
-        <v>16.01056817597769</v>
+        <v>18.21285797176344</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>7.89541812354307</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B112">
-        <v>2.27360960701694</v>
+        <v>9.534795266091935</v>
       </c>
       <c r="C112">
-        <v>13.5172266400692</v>
+        <v>16.41530806751632</v>
       </c>
       <c r="D112">
-        <v>-0.7023960546865702</v>
+        <v>7.713633535639097</v>
       </c>
       <c r="E112">
-        <v>16.49323230177271</v>
+        <v>18.23646979796916</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>8.035099067599013</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B113">
-        <v>2.388023868634477</v>
+        <v>9.519425299742888</v>
       </c>
       <c r="C113">
-        <v>13.68217426656355</v>
+        <v>16.43067803386537</v>
       </c>
       <c r="D113">
-        <v>-0.6013571668065278</v>
+        <v>7.690127200585836</v>
       </c>
       <c r="E113">
-        <v>16.67155530200456</v>
+        <v>18.25997613302242</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>8.111446678321622</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B114">
-        <v>2.439217345066925</v>
+        <v>9.504123394019382</v>
       </c>
       <c r="C114">
-        <v>13.78367601157632</v>
+        <v>16.44597993958887</v>
       </c>
       <c r="D114">
-        <v>-0.5634794847208102</v>
+        <v>7.666724955276919</v>
       </c>
       <c r="E114">
-        <v>16.78637284136406</v>
+        <v>18.28337837833134</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>8.192794289044233</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B115">
-        <v>2.495521878907108</v>
+        <v>9.488888652700492</v>
       </c>
       <c r="C115">
-        <v>13.89006669918136</v>
+        <v>16.46121468090777</v>
       </c>
       <c r="D115">
-        <v>-0.5204319549869574</v>
+        <v>7.643425429060728</v>
       </c>
       <c r="E115">
-        <v>16.90602053307542</v>
+        <v>18.30667790454753</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>7.867475233100175</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B116">
-        <v>2.145269345369088</v>
+        <v>9.473720199063351</v>
       </c>
       <c r="C116">
-        <v>13.58968112083126</v>
+        <v>16.47638313454491</v>
       </c>
       <c r="D116">
-        <v>-0.8838834742726176</v>
+        <v>7.620227281105339</v>
       </c>
       <c r="E116">
-        <v>16.61883394047297</v>
+        <v>18.32987605250292</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>7.893822843822787</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B117">
-        <v>2.14679165129747</v>
+        <v>9.458617175294378</v>
       </c>
       <c r="C117">
-        <v>13.6408540363481</v>
+        <v>16.49148615831388</v>
       </c>
       <c r="D117">
-        <v>-0.8955028908707066</v>
+        <v>7.597129199498097</v>
       </c>
       <c r="E117">
-        <v>16.68314857851628</v>
+        <v>18.35297413411016</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>7.931003787878729</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B118">
-        <v>2.159254067548367</v>
+        <v>9.443578741923197</v>
       </c>
       <c r="C118">
-        <v>13.70275350820909</v>
+        <v>16.50652459168506</v>
       </c>
       <c r="D118">
-        <v>-0.8961256728225857</v>
+        <v>7.574129900379849</v>
       </c>
       <c r="E118">
-        <v>16.75813324858004</v>
+        <v>18.37597343322841</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>7.826518065268009</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B119">
-        <v>2.030155228073615</v>
+        <v>9.428604077278138</v>
       </c>
       <c r="C119">
-        <v>13.6228809024624</v>
+        <v>16.52149925633012</v>
       </c>
       <c r="D119">
-        <v>-1.038253909318635</v>
+        <v>7.551228127112214</v>
       </c>
       <c r="E119">
-        <v>16.69129003985465</v>
+        <v>18.39887520649604</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>7.862865675990618</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B120">
-        <v>2.041993795706454</v>
+        <v>9.413692376962347</v>
       </c>
       <c r="C120">
-        <v>13.68373755627478</v>
+        <v>16.53641095664591</v>
       </c>
       <c r="D120">
-        <v>-1.039389645378935</v>
+        <v>7.528422649476374</v>
       </c>
       <c r="E120">
-        <v>16.76512099736017</v>
+        <v>18.42168068413189</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>7.401713286713231</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B121">
-        <v>1.556435127980531</v>
+        <v>9.398842853349578</v>
       </c>
       <c r="C121">
-        <v>13.24699144544593</v>
+        <v>16.55126048025868</v>
       </c>
       <c r="D121">
-        <v>-1.537868216483004</v>
+        <v>7.505712262901928</v>
       </c>
       <c r="E121">
-        <v>16.34129478990947</v>
+        <v>18.44439107070633</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>6.831810897435838</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B122">
-        <v>0.9622279429805394</v>
+        <v>9.384054735098722</v>
       </c>
       <c r="C122">
-        <v>12.70139385189114</v>
+        <v>16.56604859850954</v>
       </c>
       <c r="D122">
-        <v>-2.144941583151113</v>
+        <v>7.48309578772445</v>
       </c>
       <c r="E122">
-        <v>15.80856337802279</v>
+        <v>18.46700754588381</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>7.03274184149178</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B123">
-        <v>1.138954318556563</v>
+        <v>9.36932726668627</v>
       </c>
       <c r="C123">
-        <v>12.926529364427</v>
+        <v>16.58077606692199</v>
       </c>
       <c r="D123">
-        <v>-1.981028332145871</v>
+        <v>7.460572068470446</v>
       </c>
       <c r="E123">
-        <v>16.04651201512943</v>
+        <v>18.48953126513781</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>7.476589452214394</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B124">
-        <v>1.558696358233946</v>
+        <v>9.354659707955896</v>
       </c>
       <c r="C124">
-        <v>13.39448254619484</v>
+        <v>16.59544362565236</v>
       </c>
       <c r="D124">
-        <v>-1.574047010962958</v>
+        <v>7.438139973168497</v>
       </c>
       <c r="E124">
-        <v>16.52722591539175</v>
+        <v>18.51196336043976</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>7.616270396270336</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B125">
-        <v>1.67436952381747</v>
+        <v>9.340051333684395</v>
       </c>
       <c r="C125">
-        <v>13.5581712687232</v>
+        <v>16.61005199992386</v>
       </c>
       <c r="D125">
-        <v>-1.471082795612942</v>
+        <v>7.415798392685422</v>
       </c>
       <c r="E125">
-        <v>16.70362358815361</v>
+        <v>18.53430494092284</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>7.692618006992944</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B126">
-        <v>1.72680596802199</v>
+        <v>9.325501433163247</v>
       </c>
       <c r="C126">
-        <v>13.6584300459639</v>
+        <v>16.62460190044501</v>
       </c>
       <c r="D126">
-        <v>-1.431304158362639</v>
+        <v>7.39354624008634</v>
       </c>
       <c r="E126">
-        <v>16.81654017234853</v>
+        <v>18.55655709352192</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>7.773965617715556</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B127">
-        <v>1.784337867128262</v>
+        <v>9.311009309795157</v>
       </c>
       <c r="C127">
-        <v>13.76359336830285</v>
+        <v>16.6390940238131</v>
       </c>
       <c r="D127">
-        <v>-1.386379535437934</v>
+        <v>7.371382450017623</v>
       </c>
       <c r="E127">
-        <v>16.93431077086905</v>
+        <v>18.57872088359063</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>7.448646561771499</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B128">
-        <v>1.435297420329595</v>
+        <v>9.296574280704888</v>
       </c>
       <c r="C128">
-        <v>13.4619957032134</v>
+        <v>16.65352905290337</v>
       </c>
       <c r="D128">
-        <v>-1.747977328022975</v>
+        <v>7.349305978111715</v>
       </c>
       <c r="E128">
-        <v>16.64527045156597</v>
+        <v>18.60079735549654</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>7.47499417249411</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B129">
-        <v>1.438016849101658</v>
+        <v>9.282195676363783</v>
       </c>
       <c r="C129">
-        <v>13.51197149588656</v>
+        <v>16.66790765724448</v>
       </c>
       <c r="D129">
-        <v>-1.757765903223991</v>
+        <v>7.327315800412904</v>
       </c>
       <c r="E129">
-        <v>16.70775424821221</v>
+        <v>18.62278753319535</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>7.512175116550052</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B130">
-        <v>1.451661729927649</v>
+        <v>9.267872840227403</v>
       </c>
       <c r="C130">
-        <v>13.57268850317246</v>
+        <v>16.68223049338086</v>
       </c>
       <c r="D130">
-        <v>-1.756580261666047</v>
+        <v>7.305410912823113</v>
       </c>
       <c r="E130">
-        <v>16.78093049476615</v>
+        <v>18.64469242078514</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>7.407689393939332</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B131">
-        <v>1.323730993711401</v>
+        <v>9.253605128385709</v>
       </c>
       <c r="C131">
-        <v>13.49164779416726</v>
+        <v>16.69649820522255</v>
       </c>
       <c r="D131">
-        <v>-1.89692203839064</v>
+        <v>7.283590330566924</v>
       </c>
       <c r="E131">
-        <v>16.71230082626931</v>
+        <v>18.66651300304133</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>7.444037004661942</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B132">
-        <v>1.336723591877345</v>
+        <v>9.239391909225278</v>
       </c>
       <c r="C132">
-        <v>13.55135041744654</v>
+        <v>16.71071142438298</v>
       </c>
       <c r="D132">
-        <v>-1.896292837055711</v>
+        <v>7.26185308767496</v>
       </c>
       <c r="E132">
-        <v>16.78436684637959</v>
+        <v>18.6882502459333</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>6.982884615384554</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B133">
-        <v>0.8523051624899667</v>
+        <v>9.225232563103027</v>
       </c>
       <c r="C133">
-        <v>13.11346406827914</v>
+        <v>16.72487077050523</v>
       </c>
       <c r="D133">
-        <v>-2.393027564105882</v>
+        <v>7.240198236484908</v>
       </c>
       <c r="E133">
-        <v>16.35879679487499</v>
+        <v>18.70990509712335</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>6.41298222610716</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B134">
-        <v>0.2592246963918443</v>
+        <v>9.211126482031009</v>
       </c>
       <c r="C134">
-        <v>12.56673975582248</v>
+        <v>16.73897685157725</v>
       </c>
       <c r="D134">
-        <v>-2.998377762914235</v>
+        <v>7.218624847159437</v>
       </c>
       <c r="E134">
-        <v>15.82434221512856</v>
+        <v>18.73147848644882</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>6.613913170163102</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B135">
-        <v>0.4370645366929091</v>
+        <v>9.197073069371765</v>
       </c>
       <c r="C135">
-        <v>12.7907618036333</v>
+        <v>16.75303026423649</v>
       </c>
       <c r="D135">
-        <v>-2.832761614563457</v>
+        <v>7.197132007220303</v>
       </c>
       <c r="E135">
-        <v>16.06058795488966</v>
+        <v>18.75297132638795</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>7.057760780885716</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B136">
-        <v>0.8579070449434525</v>
+        <v>9.183071739543879</v>
       </c>
       <c r="C136">
-        <v>13.25761451682798</v>
+        <v>16.76703159406438</v>
       </c>
       <c r="D136">
-        <v>-2.424097271934117</v>
+        <v>7.175718821098009</v>
       </c>
       <c r="E136">
-        <v>16.53961883370555</v>
+        <v>18.77438451251025</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>7.197441724941659</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B137">
-        <v>0.97466793399024</v>
+        <v>9.169121917737247</v>
       </c>
       <c r="C137">
-        <v>13.42021551589308</v>
+        <v>16.78098141587101</v>
       </c>
       <c r="D137">
-        <v>-2.319469527101203</v>
+        <v>7.154384409696366</v>
       </c>
       <c r="E137">
-        <v>16.71435297698452</v>
+        <v>18.79571892391189</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>7.273789335664268</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B138">
-        <v>1.028179600848417</v>
+        <v>9.155223039637729</v>
       </c>
       <c r="C138">
-        <v>13.51939907048012</v>
+        <v>16.79488029397053</v>
       </c>
       <c r="D138">
-        <v>-2.278046478706483</v>
+        <v>7.133127909971369</v>
       </c>
       <c r="E138">
-        <v>16.82562515003502</v>
+        <v>18.81697542363689</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>7.355136946386879</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B139">
-        <v>1.086774459588499</v>
+        <v>9.141374551160769</v>
       </c>
       <c r="C139">
-        <v>13.62349943318526</v>
+        <v>16.80872878244749</v>
       </c>
       <c r="D139">
-        <v>-2.23149619930778</v>
+        <v>7.111948474523819</v>
       </c>
       <c r="E139">
-        <v>16.94177009208154</v>
+        <v>18.83815485908444</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>7.029817890442822</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B140">
-        <v>0.7387849409045817</v>
+        <v>9.127575908193656</v>
       </c>
       <c r="C140">
-        <v>13.32085083998106</v>
+        <v>16.8225274254146</v>
       </c>
       <c r="D140">
-        <v>-2.591486736039349</v>
+        <v>7.090845271205132</v>
       </c>
       <c r="E140">
-        <v>16.65112251692499</v>
+        <v>18.85925806240312</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>7.056165501165434</v>
+        <v>12.97505166680413</v>
       </c>
       <c r="B141">
-        <v>0.7425434916965061</v>
+        <v>9.113826576346067</v>
       </c>
       <c r="C141">
-        <v>13.36978751063436</v>
+        <v>16.83627675726219</v>
       </c>
       <c r="D141">
-        <v>-2.599686111250892</v>
+        <v>7.069817482735838</v>
       </c>
       <c r="E141">
-        <v>16.71201711358176</v>
+        <v>18.88028585087242</v>
       </c>
     </row>
   </sheetData>
